--- a/spliced/falling/2023-03-25_17-59-36/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-36/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.869771957397464</v>
+        <v>-2.568546533584593</v>
       </c>
       <c r="B2" t="n">
-        <v>8.188082218170166</v>
+        <v>8.544089555740355</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.89351409673691</v>
+        <v>-1.202380612492562</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-3.721651673316956</v>
+        <v>-2.869771957397464</v>
       </c>
       <c r="B3" t="n">
-        <v>7.623609662055968</v>
+        <v>8.188082218170166</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.820488899946214</v>
+        <v>-1.89351409673691</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-4.097623348236085</v>
+        <v>-3.721651673316956</v>
       </c>
       <c r="B4" t="n">
-        <v>7.048315763473512</v>
+        <v>7.623609662055968</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.382553160190582</v>
+        <v>-2.820488899946214</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-4.406465649604798</v>
+        <v>-4.097623348236085</v>
       </c>
       <c r="B5" t="n">
-        <v>7.42472231388092</v>
+        <v>7.048315763473512</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.858199380338192</v>
+        <v>-3.382553160190582</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.668206214904804</v>
+        <v>-4.406465649604798</v>
       </c>
       <c r="B6" t="n">
-        <v>6.401832580566415</v>
+        <v>7.42472231388092</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.706982076168021</v>
+        <v>-2.858199380338192</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-10.42951822280886</v>
+        <v>-1.668206214904804</v>
       </c>
       <c r="B7" t="n">
-        <v>10.53292512893678</v>
+        <v>6.401832580566415</v>
       </c>
       <c r="C7" t="n">
-        <v>17.01628107577567</v>
+        <v>-0.706982076168021</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-13.75426650047303</v>
+        <v>-10.42951822280886</v>
       </c>
       <c r="B8" t="n">
-        <v>12.83328127861023</v>
+        <v>10.53292512893678</v>
       </c>
       <c r="C8" t="n">
-        <v>8.825744509696944</v>
+        <v>17.01628107577567</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-6.927797257900221</v>
+        <v>-13.75426650047303</v>
       </c>
       <c r="B9" t="n">
-        <v>11.75843620300293</v>
+        <v>12.83328127861023</v>
       </c>
       <c r="C9" t="n">
-        <v>3.359905034303661</v>
+        <v>8.825744509696944</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.7311251163482728</v>
+        <v>-6.927797257900221</v>
       </c>
       <c r="B10" t="n">
-        <v>8.272733926773066</v>
+        <v>11.75843620300293</v>
       </c>
       <c r="C10" t="n">
-        <v>2.376347184181214</v>
+        <v>3.359905034303661</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.263805747032156</v>
+        <v>0.7311251163482728</v>
       </c>
       <c r="B11" t="n">
-        <v>7.363986670970927</v>
+        <v>8.272733926773066</v>
       </c>
       <c r="C11" t="n">
-        <v>2.197247743606565</v>
+        <v>2.376347184181214</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.7175407409668102</v>
+        <v>2.263805747032156</v>
       </c>
       <c r="B12" t="n">
-        <v>9.555598974227896</v>
+        <v>7.363986670970927</v>
       </c>
       <c r="C12" t="n">
-        <v>1.757197499275209</v>
+        <v>2.197247743606565</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.773898720741262</v>
+        <v>0.7175407409668102</v>
       </c>
       <c r="B13" t="n">
-        <v>8.314922451972965</v>
+        <v>9.555598974227896</v>
       </c>
       <c r="C13" t="n">
-        <v>2.525771677494061</v>
+        <v>1.757197499275209</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.089288711547856</v>
+        <v>3.773898720741262</v>
       </c>
       <c r="B14" t="n">
-        <v>9.256607055664061</v>
+        <v>8.314922451972965</v>
       </c>
       <c r="C14" t="n">
-        <v>5.577280521392808</v>
+        <v>2.525771677494061</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.104704558849335</v>
+        <v>1.089288711547856</v>
       </c>
       <c r="B15" t="n">
-        <v>8.927368879318237</v>
+        <v>9.256607055664061</v>
       </c>
       <c r="C15" t="n">
-        <v>2.343123555183409</v>
+        <v>5.577280521392808</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.28660249710083</v>
+        <v>2.104704558849335</v>
       </c>
       <c r="B16" t="n">
-        <v>7.885151982307432</v>
+        <v>8.927368879318237</v>
       </c>
       <c r="C16" t="n">
-        <v>2.352557301521302</v>
+        <v>2.343123555183409</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.81174808740616</v>
+        <v>2.28660249710083</v>
       </c>
       <c r="B17" t="n">
-        <v>8.390844881534578</v>
+        <v>7.885151982307432</v>
       </c>
       <c r="C17" t="n">
-        <v>1.742006152868269</v>
+        <v>2.352557301521302</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.457506418228151</v>
+        <v>2.81174808740616</v>
       </c>
       <c r="B18" t="n">
-        <v>8.694531917572021</v>
+        <v>8.390844881534578</v>
       </c>
       <c r="C18" t="n">
-        <v>1.465195775032044</v>
+        <v>1.742006152868269</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.469298005104063</v>
+        <v>3.457506418228151</v>
       </c>
       <c r="B19" t="n">
-        <v>8.534674406051636</v>
+        <v>8.694531917572021</v>
       </c>
       <c r="C19" t="n">
-        <v>1.470959067344665</v>
+        <v>1.465195775032044</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.979763031005859</v>
+        <v>3.469298005104063</v>
       </c>
       <c r="B20" t="n">
-        <v>8.450933218002319</v>
+        <v>8.534674406051636</v>
       </c>
       <c r="C20" t="n">
-        <v>1.210365951061249</v>
+        <v>1.470959067344665</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.198545038700105</v>
+        <v>2.979763031005859</v>
       </c>
       <c r="B21" t="n">
-        <v>8.029186010360718</v>
+        <v>8.450933218002319</v>
       </c>
       <c r="C21" t="n">
-        <v>1.33356249332428</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>3.5916051864624</v>
-      </c>
-      <c r="B22" t="n">
-        <v>8.197292327880859</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.436704874038696</v>
+        <v>1.210365951061249</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-59-36/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-36/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.568546533584593</v>
+        <v>-2.278594136238097</v>
       </c>
       <c r="B2" t="n">
-        <v>8.544089555740355</v>
+        <v>10.26830673217773</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.202380612492562</v>
+        <v>-1.992950439453123</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.869771957397464</v>
+        <v>-1.48284924030304</v>
       </c>
       <c r="B3" t="n">
-        <v>8.188082218170166</v>
+        <v>9.543427348136902</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.89351409673691</v>
+        <v>-0.6066013872623449</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-3.721651673316956</v>
+        <v>-2.347809791564941</v>
       </c>
       <c r="B4" t="n">
-        <v>7.623609662055968</v>
+        <v>9.136160850524902</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.820488899946214</v>
+        <v>-1.348505258560181</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-4.097623348236085</v>
+        <v>-2.276926577091217</v>
       </c>
       <c r="B5" t="n">
-        <v>7.048315763473512</v>
+        <v>9.172239780426027</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.382553160190582</v>
+        <v>-1.260899052023888</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-4.406465649604798</v>
+        <v>-3.074454665184022</v>
       </c>
       <c r="B6" t="n">
-        <v>7.42472231388092</v>
+        <v>9.003937959671021</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.858199380338192</v>
+        <v>-1.032875627279282</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.668206214904804</v>
+        <v>-2.568546533584593</v>
       </c>
       <c r="B7" t="n">
-        <v>6.401832580566415</v>
+        <v>8.544089555740355</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.706982076168021</v>
+        <v>-1.202380612492562</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-10.42951822280886</v>
+        <v>-2.869771957397464</v>
       </c>
       <c r="B8" t="n">
-        <v>10.53292512893678</v>
+        <v>8.188082218170166</v>
       </c>
       <c r="C8" t="n">
-        <v>17.01628107577567</v>
+        <v>-1.89351409673691</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-13.75426650047303</v>
+        <v>-3.721651673316956</v>
       </c>
       <c r="B9" t="n">
-        <v>12.83328127861023</v>
+        <v>7.623609662055968</v>
       </c>
       <c r="C9" t="n">
-        <v>8.825744509696944</v>
+        <v>-2.820488899946214</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-6.927797257900221</v>
+        <v>-4.097623348236085</v>
       </c>
       <c r="B10" t="n">
-        <v>11.75843620300293</v>
+        <v>7.048315763473512</v>
       </c>
       <c r="C10" t="n">
-        <v>3.359905034303661</v>
+        <v>-3.382553160190582</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.7311251163482728</v>
+        <v>-4.406465649604798</v>
       </c>
       <c r="B11" t="n">
-        <v>8.272733926773066</v>
+        <v>7.42472231388092</v>
       </c>
       <c r="C11" t="n">
-        <v>2.376347184181214</v>
+        <v>-2.858199380338192</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.263805747032156</v>
+        <v>-1.668206214904804</v>
       </c>
       <c r="B12" t="n">
-        <v>7.363986670970927</v>
+        <v>6.401832580566415</v>
       </c>
       <c r="C12" t="n">
-        <v>2.197247743606565</v>
+        <v>-0.706982076168021</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.7175407409668102</v>
+        <v>-10.42951822280886</v>
       </c>
       <c r="B13" t="n">
-        <v>9.555598974227896</v>
+        <v>10.53292512893678</v>
       </c>
       <c r="C13" t="n">
-        <v>1.757197499275209</v>
+        <v>17.01628107577567</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.773898720741262</v>
+        <v>-13.75426650047303</v>
       </c>
       <c r="B14" t="n">
-        <v>8.314922451972965</v>
+        <v>12.83328127861023</v>
       </c>
       <c r="C14" t="n">
-        <v>2.525771677494061</v>
+        <v>8.825744509696944</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.089288711547856</v>
+        <v>-6.927797257900221</v>
       </c>
       <c r="B15" t="n">
-        <v>9.256607055664061</v>
+        <v>11.75843620300293</v>
       </c>
       <c r="C15" t="n">
-        <v>5.577280521392808</v>
+        <v>3.359905034303661</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.104704558849335</v>
+        <v>0.7311251163482728</v>
       </c>
       <c r="B16" t="n">
-        <v>8.927368879318237</v>
+        <v>8.272733926773066</v>
       </c>
       <c r="C16" t="n">
-        <v>2.343123555183409</v>
+        <v>2.376347184181214</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.28660249710083</v>
+        <v>2.263805747032156</v>
       </c>
       <c r="B17" t="n">
-        <v>7.885151982307432</v>
+        <v>7.363986670970927</v>
       </c>
       <c r="C17" t="n">
-        <v>2.352557301521302</v>
+        <v>2.197247743606565</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.81174808740616</v>
+        <v>0.7175407409668102</v>
       </c>
       <c r="B18" t="n">
-        <v>8.390844881534578</v>
+        <v>9.555598974227896</v>
       </c>
       <c r="C18" t="n">
-        <v>1.742006152868269</v>
+        <v>1.757197499275209</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.457506418228151</v>
+        <v>3.773898720741262</v>
       </c>
       <c r="B19" t="n">
-        <v>8.694531917572021</v>
+        <v>8.314922451972965</v>
       </c>
       <c r="C19" t="n">
-        <v>1.465195775032044</v>
+        <v>2.525771677494061</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.469298005104063</v>
+        <v>1.089288711547856</v>
       </c>
       <c r="B20" t="n">
-        <v>8.534674406051636</v>
+        <v>9.256607055664061</v>
       </c>
       <c r="C20" t="n">
-        <v>1.470959067344665</v>
+        <v>5.577280521392808</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>2.104704558849335</v>
+      </c>
+      <c r="B21" t="n">
+        <v>8.927368879318237</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.343123555183409</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2.28660249710083</v>
+      </c>
+      <c r="B22" t="n">
+        <v>7.885151982307432</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.352557301521302</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2.81174808740616</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8.390844881534578</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.742006152868269</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3.457506418228151</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8.694531917572021</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.465195775032044</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3.469298005104063</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8.534674406051636</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.470959067344665</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
         <v>2.979763031005859</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B26" t="n">
         <v>8.450933218002319</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C26" t="n">
         <v>1.210365951061249</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3.198545038700105</v>
+      </c>
+      <c r="B27" t="n">
+        <v>8.029186010360718</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.33356249332428</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3.5916051864624</v>
+      </c>
+      <c r="B28" t="n">
+        <v>8.197292327880859</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.436704874038696</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3.165686726570128</v>
+      </c>
+      <c r="B29" t="n">
+        <v>8.038311719894409</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.441773623228073</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3.061142683029175</v>
+      </c>
+      <c r="B30" t="n">
+        <v>7.987302541732788</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.411497831344604</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3.059285700321198</v>
+      </c>
+      <c r="B31" t="n">
+        <v>8.002557039260864</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.58986583352089</v>
       </c>
     </row>
   </sheetData>
